--- a/Factor_Data/Aus.xlsx
+++ b/Factor_Data/Aus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingzheli/Documents/QBUS5010/Factor_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736AECED-507F-4F42-AD11-0B86EFDD0E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EE6D5C-4186-6249-92D4-66DCB42253BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1660" yWindow="500" windowWidth="27140" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="3656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="3657">
   <si>
     <t>ASX:BHP</t>
   </si>
@@ -11001,6 +11001,9 @@
   </si>
   <si>
     <t>Profitability Rank</t>
+  </si>
+  <si>
+    <t>Name_no</t>
   </si>
 </sst>
 </file>
@@ -11396,8 +11399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11414,7 +11417,7 @@
         <v>3623</v>
       </c>
       <c r="B1" t="s">
-        <v>3624</v>
+        <v>3656</v>
       </c>
       <c r="C1" t="s">
         <v>3625</v>
@@ -11825,7 +11828,7 @@
         <v>73.25</v>
       </c>
       <c r="AG4">
-        <f t="shared" ref="AG3:AG66" si="6">_xlfn.RANK.EQ(AF4,$AF$2:$AF$501,1)</f>
+        <f t="shared" ref="AG4:AG66" si="6">_xlfn.RANK.EQ(AF4,$AF$2:$AF$501,1)</f>
         <v>45</v>
       </c>
       <c r="AH4" t="s">
